--- a/DATA_goal/Junction_Flooding_41.xlsx
+++ b/DATA_goal/Junction_Flooding_41.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40751.20137731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>34.94</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>135.66</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>10.79</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_41.xlsx
+++ b/DATA_goal/Junction_Flooding_41.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.13194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>4.89</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.13888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.29</v>
+        <v>0.33</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>66.67</v>
+        <v>6.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.25</v>
+        <v>0.52</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.14583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>106.87</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>5.71</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.15</v>
+        <v>0.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.15277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.96</v>
+        <v>2.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.85</v>
+        <v>2.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.81</v>
+        <v>3.58</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.55</v>
+        <v>13.56</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.04</v>
+        <v>2.6</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.17</v>
+        <v>1.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>32.19</v>
+        <v>3.22</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40751.15972222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>19.72</v>
+        <v>1.97</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>29.18</v>
+        <v>2.92</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.05</v>
+        <v>0.7</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>101.27</v>
+        <v>10.13</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>26.32</v>
+        <v>2.63</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40751.16666666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>13.13</v>
+        <v>1.31</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>23.34</v>
+        <v>2.33</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>78.40000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>15.65</v>
+        <v>1.57</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>11.55</v>
+        <v>1.16</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>21.02</v>
+        <v>2.1</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40751.17361111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>2.62</v>
-      </c>
       <c r="K8" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>49.81</v>
+        <v>4.98</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>10.45</v>
+        <v>1.05</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40751.18055555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>18.73</v>
+        <v>1.87</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>15.68</v>
+        <v>1.57</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>25.05</v>
+        <v>2.5</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>95.56999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.35</v>
+        <v>0.54</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>22.39</v>
+        <v>2.24</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40751.1875</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>22.67</v>
+        <v>2.27</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>78.43000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>20.49</v>
+        <v>2.05</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_41.xlsx
+++ b/DATA_goal/Junction_Flooding_41.xlsx
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -461,10 +461,10 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>36373.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>36373.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.82</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.55</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.63</v>
+        <v>26.3</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.85</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.14</v>
+        <v>101.4</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2</v>
+        <v>19.98</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.98</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.36</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.44</v>
+        <v>24.39</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.54</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>36373.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.67</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.26</v>
+        <v>22.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.45</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.82</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.85</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.82</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.93</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>36373.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.66</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.28</v>
+        <v>72.78</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_41.xlsx
+++ b/DATA_goal/Junction_Flooding_41.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>36373.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>36373.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.865</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.51</v>
+        <v>6.512</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.82</v>
+        <v>19.819</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.27</v>
+        <v>15.268</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.55</v>
+        <v>6.554</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.3</v>
+        <v>26.301</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11</v>
+        <v>10.998</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.81</v>
+        <v>4.815</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>6.43</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.16</v>
+        <v>8.156000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.356999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.59</v>
+        <v>2.588</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.85</v>
+        <v>9.853</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>6.47</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.081</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.453</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>101.4</v>
+        <v>101.397</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.98</v>
+        <v>19.985</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.94</v>
+        <v>12.941</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>7.01</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.042</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.98</v>
+        <v>13.976</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.82</v>
+        <v>5.824</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.36</v>
+        <v>5.359</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.26</v>
+        <v>6.257</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.363</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>24.39</v>
+        <v>24.392</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.54</v>
+        <v>3.537</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.24</v>
+        <v>8.244</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>36373.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.02</v>
+        <v>7.018</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.19</v>
+        <v>5.185</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.67</v>
+        <v>15.665</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.2</v>
+        <v>5.196</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.63</v>
+        <v>22.627</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.68</v>
+        <v>8.675000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.87</v>
+        <v>3.866</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.17</v>
+        <v>5.169</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.45</v>
+        <v>6.446</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>6.62</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.04</v>
+        <v>2.043</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>7.82</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.07</v>
+        <v>5.065</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>78.51000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.82</v>
+        <v>15.819</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.205</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.31</v>
+        <v>10.309</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.52</v>
+        <v>5.521</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.787</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.55</v>
+        <v>11.553</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.21</v>
+        <v>4.214</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>4.93</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.61</v>
+        <v>6.606</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>20.93</v>
+        <v>20.927</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.8</v>
+        <v>2.802</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.51</v>
+        <v>6.508</v>
       </c>
     </row>
     <row r="5">
@@ -1063,110 +1063,6 @@
         <v>2.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>36373.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.78</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.94</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
         <v>6.07</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_41.xlsx
+++ b/DATA_goal/Junction_Flooding_41.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,102 +967,206 @@
         <v>36373.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.58</v>
+        <v>6.579</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.88</v>
+        <v>4.882</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.63</v>
+        <v>14.627</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.55</v>
+        <v>11.548</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.91</v>
+        <v>4.911</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.94</v>
+        <v>20.938</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.1</v>
+        <v>8.097</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.64</v>
+        <v>3.642</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.94</v>
+        <v>4.936</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>6</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.19</v>
+        <v>6.191</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>7.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.66</v>
+        <v>4.664</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.584</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.247</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.78</v>
+        <v>72.78100000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.74</v>
+        <v>14.739</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.67</v>
+        <v>9.672000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.15</v>
+        <v>5.151</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.717</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.56</v>
+        <v>10.564</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.91</v>
+        <v>3.906</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.57</v>
+        <v>4.575</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.17</v>
+        <v>6.168</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.23</v>
+        <v>19.234</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.64</v>
+        <v>2.637</v>
       </c>
       <c r="AH5" s="4" t="n">
+        <v>6.074</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>36373.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.78</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>6.07</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_41.xlsx
+++ b/DATA_goal/Junction_Flooding_41.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,206 +967,102 @@
         <v>36373.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.579</v>
+        <v>6.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.882</v>
+        <v>4.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.744</v>
+        <v>0.74</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.627</v>
+        <v>14.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.548</v>
+        <v>11.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.911</v>
+        <v>4.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.938</v>
+        <v>20.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.097</v>
+        <v>8.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.642</v>
+        <v>3.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.936</v>
+        <v>4.94</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>6</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.191</v>
+        <v>6.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.263</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>7.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.664</v>
+        <v>4.66</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.584</v>
+        <v>0.58</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.78100000000001</v>
+        <v>72.78</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.739</v>
+        <v>14.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.858</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.672000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.151</v>
+        <v>5.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.717</v>
+        <v>0.72</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.564</v>
+        <v>10.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.291</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.906</v>
+        <v>3.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.575</v>
+        <v>4.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.168</v>
+        <v>6.17</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.234</v>
+        <v>19.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.637</v>
+        <v>2.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.074</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>36373.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.78</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.94</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
         <v>6.07</v>
       </c>
     </row>
